--- a/natmiOut/OldD2/LR-pairs_lrc2p/Slit2-Gpc1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Slit2-Gpc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.07137927312602731</v>
+        <v>0.1259785</v>
       </c>
       <c r="H2">
-        <v>0.07137927312602731</v>
+        <v>0.251957</v>
       </c>
       <c r="I2">
-        <v>0.05637913187476376</v>
+        <v>0.07482967403937346</v>
       </c>
       <c r="J2">
-        <v>0.05637913187476376</v>
+        <v>0.05693179265879337</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.452295186956483</v>
+        <v>0.480875</v>
       </c>
       <c r="N2">
-        <v>0.452295186956483</v>
+        <v>0.96175</v>
       </c>
       <c r="O2">
-        <v>0.008637563727287188</v>
+        <v>0.008972735441887963</v>
       </c>
       <c r="P2">
-        <v>0.008637563727287188</v>
+        <v>0.008345961472334342</v>
       </c>
       <c r="Q2">
-        <v>0.03228450168335439</v>
+        <v>0.06057991118749999</v>
       </c>
       <c r="R2">
-        <v>0.03228450168335439</v>
+        <v>0.24231964475</v>
       </c>
       <c r="S2">
-        <v>0.0004869783444574004</v>
+        <v>0.0006714268683580099</v>
       </c>
       <c r="T2">
-        <v>0.0004869783444574004</v>
+        <v>0.0004751505480812166</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.07137927312602731</v>
+        <v>0.1259785</v>
       </c>
       <c r="H3">
-        <v>0.07137927312602731</v>
+        <v>0.251957</v>
       </c>
       <c r="I3">
-        <v>0.05637913187476376</v>
+        <v>0.07482967403937346</v>
       </c>
       <c r="J3">
-        <v>0.05637913187476376</v>
+        <v>0.05693179265879337</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.60436891107091</v>
+        <v>4.865417666666667</v>
       </c>
       <c r="N3">
-        <v>4.60436891107091</v>
+        <v>14.596253</v>
       </c>
       <c r="O3">
-        <v>0.08793047337278292</v>
+        <v>0.09078472687764562</v>
       </c>
       <c r="P3">
-        <v>0.08793047337278292</v>
+        <v>0.1266646895538805</v>
       </c>
       <c r="Q3">
-        <v>0.3286565060763195</v>
+        <v>0.6129380195201666</v>
       </c>
       <c r="R3">
-        <v>0.3286565060763195</v>
+        <v>3.677628117121</v>
       </c>
       <c r="S3">
-        <v>0.004957443754094532</v>
+        <v>0.006793391520007769</v>
       </c>
       <c r="T3">
-        <v>0.004957443754094532</v>
+        <v>0.007211247842871955</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.07137927312602731</v>
+        <v>0.1259785</v>
       </c>
       <c r="H4">
-        <v>0.07137927312602731</v>
+        <v>0.251957</v>
       </c>
       <c r="I4">
-        <v>0.05637913187476376</v>
+        <v>0.07482967403937346</v>
       </c>
       <c r="J4">
-        <v>0.05637913187476376</v>
+        <v>0.05693179265879337</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.28613333894551</v>
+        <v>1.708736</v>
       </c>
       <c r="N4">
-        <v>1.28613333894551</v>
+        <v>5.126208</v>
       </c>
       <c r="O4">
-        <v>0.02456152308779563</v>
+        <v>0.03188362062496464</v>
       </c>
       <c r="P4">
-        <v>0.02456152308779563</v>
+        <v>0.04448467321775106</v>
       </c>
       <c r="Q4">
-        <v>0.09180326287708102</v>
+        <v>0.215263998176</v>
       </c>
       <c r="R4">
-        <v>0.09180326287708102</v>
+        <v>1.291583989056</v>
       </c>
       <c r="S4">
-        <v>0.001384757349211884</v>
+        <v>0.002385840938561149</v>
       </c>
       <c r="T4">
-        <v>0.001384757349211884</v>
+        <v>0.002532592192127182</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.07137927312602731</v>
+        <v>0.1259785</v>
       </c>
       <c r="H5">
-        <v>0.07137927312602731</v>
+        <v>0.251957</v>
       </c>
       <c r="I5">
-        <v>0.05637913187476376</v>
+        <v>0.07482967403937346</v>
       </c>
       <c r="J5">
-        <v>0.05637913187476376</v>
+        <v>0.05693179265879337</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.883637411128482</v>
+        <v>0.8951863333333333</v>
       </c>
       <c r="N5">
-        <v>0.883637411128482</v>
+        <v>2.685559</v>
       </c>
       <c r="O5">
-        <v>0.01687498490045104</v>
+        <v>0.01670344713323365</v>
       </c>
       <c r="P5">
-        <v>0.01687498490045104</v>
+        <v>0.02330498772620821</v>
       </c>
       <c r="Q5">
-        <v>0.0630733961133156</v>
+        <v>0.1127742314938333</v>
       </c>
       <c r="R5">
-        <v>0.0630733961133156</v>
+        <v>0.676645388963</v>
       </c>
       <c r="S5">
-        <v>0.0009513969990871766</v>
+        <v>0.001249913504313781</v>
       </c>
       <c r="T5">
-        <v>0.0009513969990871766</v>
+        <v>0.00132679472914421</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.07137927312602731</v>
+        <v>0.1259785</v>
       </c>
       <c r="H6">
-        <v>0.07137927312602731</v>
+        <v>0.251957</v>
       </c>
       <c r="I6">
-        <v>0.05637913187476376</v>
+        <v>0.07482967403937346</v>
       </c>
       <c r="J6">
-        <v>0.05637913187476376</v>
+        <v>0.05693179265879337</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.460650086141337</v>
+        <v>0.5802156666666667</v>
       </c>
       <c r="N6">
-        <v>0.460650086141337</v>
+        <v>1.740647</v>
       </c>
       <c r="O6">
-        <v>0.008797118761754489</v>
+        <v>0.01082635128929275</v>
       </c>
       <c r="P6">
-        <v>0.008797118761754489</v>
+        <v>0.01510514457908433</v>
       </c>
       <c r="Q6">
-        <v>0.0328808683142105</v>
+        <v>0.07309469936316666</v>
       </c>
       <c r="R6">
-        <v>0.0328808683142105</v>
+        <v>0.438568196179</v>
       </c>
       <c r="S6">
-        <v>0.0004959739187869149</v>
+        <v>0.0008101323380135273</v>
       </c>
       <c r="T6">
-        <v>0.0004959739187869149</v>
+        <v>0.0008599629592575258</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.07137927312602731</v>
+        <v>0.1259785</v>
       </c>
       <c r="H7">
-        <v>0.07137927312602731</v>
+        <v>0.251957</v>
       </c>
       <c r="I7">
-        <v>0.05637913187476376</v>
+        <v>0.07482967403937346</v>
       </c>
       <c r="J7">
-        <v>0.05637913187476376</v>
+        <v>0.05693179265879337</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>44.6766603574561</v>
+        <v>45.062479</v>
       </c>
       <c r="N7">
-        <v>44.6766603574561</v>
+        <v>90.12495799999999</v>
       </c>
       <c r="O7">
-        <v>0.8531983361499288</v>
+        <v>0.8408291186329754</v>
       </c>
       <c r="P7">
-        <v>0.8531983361499288</v>
+        <v>0.7820945434507416</v>
       </c>
       <c r="Q7">
-        <v>3.188987542013616</v>
+        <v>5.676903510701499</v>
       </c>
       <c r="R7">
-        <v>3.188987542013616</v>
+        <v>22.707614042806</v>
       </c>
       <c r="S7">
-        <v>0.04810258150912586</v>
+        <v>0.06291896887011923</v>
       </c>
       <c r="T7">
-        <v>0.04810258150912586</v>
+        <v>0.04452604438731128</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.711962846236912</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H8">
-        <v>0.711962846236912</v>
+        <v>2.524493</v>
       </c>
       <c r="I8">
-        <v>0.5623459786015482</v>
+        <v>0.4998392273408559</v>
       </c>
       <c r="J8">
-        <v>0.5623459786015482</v>
+        <v>0.570430319636189</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.452295186956483</v>
+        <v>0.480875</v>
       </c>
       <c r="N8">
-        <v>0.452295186956483</v>
+        <v>0.96175</v>
       </c>
       <c r="O8">
-        <v>0.008637563727287188</v>
+        <v>0.008972735441887963</v>
       </c>
       <c r="P8">
-        <v>0.008637563727287188</v>
+        <v>0.008345961472334342</v>
       </c>
       <c r="Q8">
-        <v>0.3220173686447939</v>
+        <v>0.4046551904583334</v>
       </c>
       <c r="R8">
-        <v>0.3220173686447939</v>
+        <v>2.42793114275</v>
       </c>
       <c r="S8">
-        <v>0.00485729922695455</v>
+        <v>0.004484925150407193</v>
       </c>
       <c r="T8">
-        <v>0.00485729922695455</v>
+        <v>0.004760789470334997</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.711962846236912</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H9">
-        <v>0.711962846236912</v>
+        <v>2.524493</v>
       </c>
       <c r="I9">
-        <v>0.5623459786015482</v>
+        <v>0.4998392273408559</v>
       </c>
       <c r="J9">
-        <v>0.5623459786015482</v>
+        <v>0.570430319636189</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.60436891107091</v>
+        <v>4.865417666666667</v>
       </c>
       <c r="N9">
-        <v>4.60436891107091</v>
+        <v>14.596253</v>
       </c>
       <c r="O9">
-        <v>0.08793047337278292</v>
+        <v>0.09078472687764562</v>
       </c>
       <c r="P9">
-        <v>0.08793047337278292</v>
+        <v>0.1266646895538805</v>
       </c>
       <c r="Q9">
-        <v>3.278139595050796</v>
+        <v>4.094237613858778</v>
       </c>
       <c r="R9">
-        <v>3.278139595050796</v>
+        <v>36.848138524729</v>
       </c>
       <c r="S9">
-        <v>0.04944734809771499</v>
+        <v>0.04537776773687302</v>
       </c>
       <c r="T9">
-        <v>0.04944734809771499</v>
+        <v>0.0722533793488387</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.711962846236912</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H10">
-        <v>0.711962846236912</v>
+        <v>2.524493</v>
       </c>
       <c r="I10">
-        <v>0.5623459786015482</v>
+        <v>0.4998392273408559</v>
       </c>
       <c r="J10">
-        <v>0.5623459786015482</v>
+        <v>0.570430319636189</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.28613333894551</v>
+        <v>1.708736</v>
       </c>
       <c r="N10">
-        <v>1.28613333894551</v>
+        <v>5.126208</v>
       </c>
       <c r="O10">
-        <v>0.02456152308779563</v>
+        <v>0.03188362062496464</v>
       </c>
       <c r="P10">
-        <v>0.02456152308779563</v>
+        <v>0.04448467321775106</v>
       </c>
       <c r="Q10">
-        <v>0.9156791526358283</v>
+        <v>1.437897356949333</v>
       </c>
       <c r="R10">
-        <v>0.9156791526358283</v>
+        <v>12.941076212544</v>
       </c>
       <c r="S10">
-        <v>0.01381207373675095</v>
+        <v>0.0159366842980113</v>
       </c>
       <c r="T10">
-        <v>0.01381207373675095</v>
+        <v>0.02537540636251315</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.711962846236912</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H11">
-        <v>0.711962846236912</v>
+        <v>2.524493</v>
       </c>
       <c r="I11">
-        <v>0.5623459786015482</v>
+        <v>0.4998392273408559</v>
       </c>
       <c r="J11">
-        <v>0.5623459786015482</v>
+        <v>0.570430319636189</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.883637411128482</v>
+        <v>0.8951863333333333</v>
       </c>
       <c r="N11">
-        <v>0.883637411128482</v>
+        <v>2.685559</v>
       </c>
       <c r="O11">
-        <v>0.01687498490045104</v>
+        <v>0.01670344713323365</v>
       </c>
       <c r="P11">
-        <v>0.01687498490045104</v>
+        <v>0.02330498772620821</v>
       </c>
       <c r="Q11">
-        <v>0.6291170062684505</v>
+        <v>0.7532972107318889</v>
       </c>
       <c r="R11">
-        <v>0.6291170062684505</v>
+        <v>6.779674896587</v>
       </c>
       <c r="S11">
-        <v>0.009489579897730492</v>
+        <v>0.008349038109004342</v>
       </c>
       <c r="T11">
-        <v>0.009489579897730492</v>
+        <v>0.01329387159777841</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.711962846236912</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H12">
-        <v>0.711962846236912</v>
+        <v>2.524493</v>
       </c>
       <c r="I12">
-        <v>0.5623459786015482</v>
+        <v>0.4998392273408559</v>
       </c>
       <c r="J12">
-        <v>0.5623459786015482</v>
+        <v>0.570430319636189</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.460650086141337</v>
+        <v>0.5802156666666667</v>
       </c>
       <c r="N12">
-        <v>0.460650086141337</v>
+        <v>1.740647</v>
       </c>
       <c r="O12">
-        <v>0.008797118761754489</v>
+        <v>0.01082635128929275</v>
       </c>
       <c r="P12">
-        <v>0.008797118761754489</v>
+        <v>0.01510514457908433</v>
       </c>
       <c r="Q12">
-        <v>0.327965746448465</v>
+        <v>0.4882501296634445</v>
       </c>
       <c r="R12">
-        <v>0.327965746448465</v>
+        <v>4.394251166971</v>
       </c>
       <c r="S12">
-        <v>0.004947024358952869</v>
+        <v>0.005411435063360769</v>
       </c>
       <c r="T12">
-        <v>0.004947024358952869</v>
+        <v>0.008616432450397922</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.711962846236912</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H13">
-        <v>0.711962846236912</v>
+        <v>2.524493</v>
       </c>
       <c r="I13">
-        <v>0.5623459786015482</v>
+        <v>0.4998392273408559</v>
       </c>
       <c r="J13">
-        <v>0.5623459786015482</v>
+        <v>0.570430319636189</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>44.6766603574561</v>
+        <v>45.062479</v>
       </c>
       <c r="N13">
-        <v>44.6766603574561</v>
+        <v>90.12495799999999</v>
       </c>
       <c r="O13">
-        <v>0.8531983361499288</v>
+        <v>0.8408291186329754</v>
       </c>
       <c r="P13">
-        <v>0.8531983361499288</v>
+        <v>0.7820945434507416</v>
       </c>
       <c r="Q13">
-        <v>31.80812226845426</v>
+        <v>37.91997093271566</v>
       </c>
       <c r="R13">
-        <v>31.80812226845426</v>
+        <v>227.519825596294</v>
       </c>
       <c r="S13">
-        <v>0.4797926532834444</v>
+        <v>0.4202793769831993</v>
       </c>
       <c r="T13">
-        <v>0.4797926532834444</v>
+        <v>0.4461304404063258</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.0706041221358726</v>
+        <v>0.010485</v>
       </c>
       <c r="H14">
-        <v>0.0706041221358726</v>
+        <v>0.031455</v>
       </c>
       <c r="I14">
-        <v>0.05576687655213495</v>
+        <v>0.006227960582979085</v>
       </c>
       <c r="J14">
-        <v>0.05576687655213495</v>
+        <v>0.007107520481996314</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.452295186956483</v>
+        <v>0.480875</v>
       </c>
       <c r="N14">
-        <v>0.452295186956483</v>
+        <v>0.96175</v>
       </c>
       <c r="O14">
-        <v>0.008637563727287188</v>
+        <v>0.008972735441887963</v>
       </c>
       <c r="P14">
-        <v>0.008637563727287188</v>
+        <v>0.008345961472334342</v>
       </c>
       <c r="Q14">
-        <v>0.03193390462134286</v>
+        <v>0.005041974375</v>
       </c>
       <c r="R14">
-        <v>0.03193390462134286</v>
+        <v>0.03025184625</v>
       </c>
       <c r="S14">
-        <v>0.0004816899500908232</v>
+        <v>5.588184265357765E-05</v>
       </c>
       <c r="T14">
-        <v>0.0004816899500908232</v>
+        <v>5.931909210656846E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.0706041221358726</v>
+        <v>0.010485</v>
       </c>
       <c r="H15">
-        <v>0.0706041221358726</v>
+        <v>0.031455</v>
       </c>
       <c r="I15">
-        <v>0.05576687655213495</v>
+        <v>0.006227960582979085</v>
       </c>
       <c r="J15">
-        <v>0.05576687655213495</v>
+        <v>0.007107520481996314</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.60436891107091</v>
+        <v>4.865417666666667</v>
       </c>
       <c r="N15">
-        <v>4.60436891107091</v>
+        <v>14.596253</v>
       </c>
       <c r="O15">
-        <v>0.08793047337278292</v>
+        <v>0.09078472687764562</v>
       </c>
       <c r="P15">
-        <v>0.08793047337278292</v>
+        <v>0.1266646895538805</v>
       </c>
       <c r="Q15">
-        <v>0.3250874249558652</v>
+        <v>0.051013904235</v>
       </c>
       <c r="R15">
-        <v>0.3250874249558652</v>
+        <v>0.459125138115</v>
       </c>
       <c r="S15">
-        <v>0.004903607853750775</v>
+        <v>0.0005654037005304989</v>
       </c>
       <c r="T15">
-        <v>0.004903607853750775</v>
+        <v>0.0009002718753499102</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.0706041221358726</v>
+        <v>0.010485</v>
       </c>
       <c r="H16">
-        <v>0.0706041221358726</v>
+        <v>0.031455</v>
       </c>
       <c r="I16">
-        <v>0.05576687655213495</v>
+        <v>0.006227960582979085</v>
       </c>
       <c r="J16">
-        <v>0.05576687655213495</v>
+        <v>0.007107520481996314</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.28613333894551</v>
+        <v>1.708736</v>
       </c>
       <c r="N16">
-        <v>1.28613333894551</v>
+        <v>5.126208</v>
       </c>
       <c r="O16">
-        <v>0.02456152308779563</v>
+        <v>0.03188362062496464</v>
       </c>
       <c r="P16">
-        <v>0.02456152308779563</v>
+        <v>0.04448467321775106</v>
       </c>
       <c r="Q16">
-        <v>0.09080631534592642</v>
+        <v>0.01791609696</v>
       </c>
       <c r="R16">
-        <v>0.09080631534592642</v>
+        <v>0.16124487264</v>
       </c>
       <c r="S16">
-        <v>0.001369719425969511</v>
+        <v>0.0001985699324949387</v>
       </c>
       <c r="T16">
-        <v>0.001369719425969511</v>
+        <v>0.0003161757260300786</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.0706041221358726</v>
+        <v>0.010485</v>
       </c>
       <c r="H17">
-        <v>0.0706041221358726</v>
+        <v>0.031455</v>
       </c>
       <c r="I17">
-        <v>0.05576687655213495</v>
+        <v>0.006227960582979085</v>
       </c>
       <c r="J17">
-        <v>0.05576687655213495</v>
+        <v>0.007107520481996314</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.883637411128482</v>
+        <v>0.8951863333333333</v>
       </c>
       <c r="N17">
-        <v>0.883637411128482</v>
+        <v>2.685559</v>
       </c>
       <c r="O17">
-        <v>0.01687498490045104</v>
+        <v>0.01670344713323365</v>
       </c>
       <c r="P17">
-        <v>0.01687498490045104</v>
+        <v>0.02330498772620821</v>
       </c>
       <c r="Q17">
-        <v>0.06238844369914161</v>
+        <v>0.009386028704999999</v>
       </c>
       <c r="R17">
-        <v>0.06238844369914161</v>
+        <v>0.084474258345</v>
       </c>
       <c r="S17">
-        <v>0.0009410651997625945</v>
+        <v>0.0001040284103456542</v>
       </c>
       <c r="T17">
-        <v>0.0009410651997625945</v>
+        <v>0.0001656406775966975</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.0706041221358726</v>
+        <v>0.010485</v>
       </c>
       <c r="H18">
-        <v>0.0706041221358726</v>
+        <v>0.031455</v>
       </c>
       <c r="I18">
-        <v>0.05576687655213495</v>
+        <v>0.006227960582979085</v>
       </c>
       <c r="J18">
-        <v>0.05576687655213495</v>
+        <v>0.007107520481996314</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.460650086141337</v>
+        <v>0.5802156666666667</v>
       </c>
       <c r="N18">
-        <v>0.460650086141337</v>
+        <v>1.740647</v>
       </c>
       <c r="O18">
-        <v>0.008797118761754489</v>
+        <v>0.01082635128929275</v>
       </c>
       <c r="P18">
-        <v>0.008797118761754489</v>
+        <v>0.01510514457908433</v>
       </c>
       <c r="Q18">
-        <v>0.03252379494382319</v>
+        <v>0.006083561265</v>
       </c>
       <c r="R18">
-        <v>0.03252379494382319</v>
+        <v>0.05475205138499999</v>
       </c>
       <c r="S18">
-        <v>0.0004905878360012329</v>
+        <v>6.742608908720006E-05</v>
       </c>
       <c r="T18">
-        <v>0.0004905878360012329</v>
+        <v>0.0001073601244793575</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.0706041221358726</v>
+        <v>0.010485</v>
       </c>
       <c r="H19">
-        <v>0.0706041221358726</v>
+        <v>0.031455</v>
       </c>
       <c r="I19">
-        <v>0.05576687655213495</v>
+        <v>0.006227960582979085</v>
       </c>
       <c r="J19">
-        <v>0.05576687655213495</v>
+        <v>0.007107520481996314</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>44.6766603574561</v>
+        <v>45.062479</v>
       </c>
       <c r="N19">
-        <v>44.6766603574561</v>
+        <v>90.12495799999999</v>
       </c>
       <c r="O19">
-        <v>0.8531983361499288</v>
+        <v>0.8408291186329754</v>
       </c>
       <c r="P19">
-        <v>0.8531983361499288</v>
+        <v>0.7820945434507416</v>
       </c>
       <c r="Q19">
-        <v>3.154356384500728</v>
+        <v>0.4724800923149999</v>
       </c>
       <c r="R19">
-        <v>3.154356384500728</v>
+        <v>2.834880553889999</v>
       </c>
       <c r="S19">
-        <v>0.04758020628656002</v>
+        <v>0.005236650607867216</v>
       </c>
       <c r="T19">
-        <v>0.04758020628656002</v>
+        <v>0.005558752986433702</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.412112151961089</v>
+        <v>0.206538</v>
       </c>
       <c r="H20">
-        <v>0.412112151961089</v>
+        <v>0.619614</v>
       </c>
       <c r="I20">
-        <v>0.325508012971553</v>
+        <v>0.1226810226883485</v>
       </c>
       <c r="J20">
-        <v>0.325508012971553</v>
+        <v>0.1400069685560854</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.452295186956483</v>
+        <v>0.480875</v>
       </c>
       <c r="N20">
-        <v>0.452295186956483</v>
+        <v>0.96175</v>
       </c>
       <c r="O20">
-        <v>0.008637563727287188</v>
+        <v>0.008972735441887963</v>
       </c>
       <c r="P20">
-        <v>0.008637563727287188</v>
+        <v>0.008345961472334342</v>
       </c>
       <c r="Q20">
-        <v>0.1863963428182793</v>
+        <v>0.09931896075</v>
       </c>
       <c r="R20">
-        <v>0.1863963428182793</v>
+        <v>0.5959137645</v>
       </c>
       <c r="S20">
-        <v>0.002811596205784414</v>
+        <v>0.001100784360322806</v>
       </c>
       <c r="T20">
-        <v>0.002811596205784414</v>
+        <v>0.001168492765427414</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.412112151961089</v>
+        <v>0.206538</v>
       </c>
       <c r="H21">
-        <v>0.412112151961089</v>
+        <v>0.619614</v>
       </c>
       <c r="I21">
-        <v>0.325508012971553</v>
+        <v>0.1226810226883485</v>
       </c>
       <c r="J21">
-        <v>0.325508012971553</v>
+        <v>0.1400069685560854</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.60436891107091</v>
+        <v>4.865417666666667</v>
       </c>
       <c r="N21">
-        <v>4.60436891107091</v>
+        <v>14.596253</v>
       </c>
       <c r="O21">
-        <v>0.08793047337278292</v>
+        <v>0.09078472687764562</v>
       </c>
       <c r="P21">
-        <v>0.08793047337278292</v>
+        <v>0.1266646895538805</v>
       </c>
       <c r="Q21">
-        <v>1.897516380364169</v>
+        <v>1.004893634038</v>
       </c>
       <c r="R21">
-        <v>1.897516380364169</v>
+        <v>9.044042706342001</v>
       </c>
       <c r="S21">
-        <v>0.02862207366722262</v>
+        <v>0.01113756313783197</v>
       </c>
       <c r="T21">
-        <v>0.02862207366722262</v>
+        <v>0.01773393920753646</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.412112151961089</v>
+        <v>0.206538</v>
       </c>
       <c r="H22">
-        <v>0.412112151961089</v>
+        <v>0.619614</v>
       </c>
       <c r="I22">
-        <v>0.325508012971553</v>
+        <v>0.1226810226883485</v>
       </c>
       <c r="J22">
-        <v>0.325508012971553</v>
+        <v>0.1400069685560854</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.28613333894551</v>
+        <v>1.708736</v>
       </c>
       <c r="N22">
-        <v>1.28613333894551</v>
+        <v>5.126208</v>
       </c>
       <c r="O22">
-        <v>0.02456152308779563</v>
+        <v>0.03188362062496464</v>
       </c>
       <c r="P22">
-        <v>0.02456152308779563</v>
+        <v>0.04448467321775106</v>
       </c>
       <c r="Q22">
-        <v>0.5300311780217348</v>
+        <v>0.352918915968</v>
       </c>
       <c r="R22">
-        <v>0.5300311780217348</v>
+        <v>3.176270243712</v>
       </c>
       <c r="S22">
-        <v>0.007994972575863278</v>
+        <v>0.003911515185277984</v>
       </c>
       <c r="T22">
-        <v>0.007994972575863278</v>
+        <v>0.006228164244425406</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.412112151961089</v>
+        <v>0.206538</v>
       </c>
       <c r="H23">
-        <v>0.412112151961089</v>
+        <v>0.619614</v>
       </c>
       <c r="I23">
-        <v>0.325508012971553</v>
+        <v>0.1226810226883485</v>
       </c>
       <c r="J23">
-        <v>0.325508012971553</v>
+        <v>0.1400069685560854</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.883637411128482</v>
+        <v>0.8951863333333333</v>
       </c>
       <c r="N23">
-        <v>0.883637411128482</v>
+        <v>2.685559</v>
       </c>
       <c r="O23">
-        <v>0.01687498490045104</v>
+        <v>0.01670344713323365</v>
       </c>
       <c r="P23">
-        <v>0.01687498490045104</v>
+        <v>0.02330498772620821</v>
       </c>
       <c r="Q23">
-        <v>0.3641577150534843</v>
+        <v>0.184889994914</v>
       </c>
       <c r="R23">
-        <v>0.3641577150534843</v>
+        <v>1.664009954226</v>
       </c>
       <c r="S23">
-        <v>0.00549294280387078</v>
+        <v>0.002049195976725867</v>
       </c>
       <c r="T23">
-        <v>0.00549294280387078</v>
+        <v>0.003262860683783187</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.412112151961089</v>
+        <v>0.206538</v>
       </c>
       <c r="H24">
-        <v>0.412112151961089</v>
+        <v>0.619614</v>
       </c>
       <c r="I24">
-        <v>0.325508012971553</v>
+        <v>0.1226810226883485</v>
       </c>
       <c r="J24">
-        <v>0.325508012971553</v>
+        <v>0.1400069685560854</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.460650086141337</v>
+        <v>0.5802156666666667</v>
       </c>
       <c r="N24">
-        <v>0.460650086141337</v>
+        <v>1.740647</v>
       </c>
       <c r="O24">
-        <v>0.008797118761754489</v>
+        <v>0.01082635128929275</v>
       </c>
       <c r="P24">
-        <v>0.008797118761754489</v>
+        <v>0.01510514457908433</v>
       </c>
       <c r="Q24">
-        <v>0.1898394983007674</v>
+        <v>0.119836583362</v>
       </c>
       <c r="R24">
-        <v>0.1898394983007674</v>
+        <v>1.078529250258</v>
       </c>
       <c r="S24">
-        <v>0.002863532648013473</v>
+        <v>0.001328187848153756</v>
       </c>
       <c r="T24">
-        <v>0.002863532648013473</v>
+        <v>0.002114825502118983</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.206538</v>
+      </c>
+      <c r="H25">
+        <v>0.619614</v>
+      </c>
+      <c r="I25">
+        <v>0.1226810226883485</v>
+      </c>
+      <c r="J25">
+        <v>0.1400069685560854</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>45.062479</v>
+      </c>
+      <c r="N25">
+        <v>90.12495799999999</v>
+      </c>
+      <c r="O25">
+        <v>0.8408291186329754</v>
+      </c>
+      <c r="P25">
+        <v>0.7820945434507416</v>
+      </c>
+      <c r="Q25">
+        <v>9.307114287701999</v>
+      </c>
+      <c r="R25">
+        <v>55.842685726212</v>
+      </c>
+      <c r="S25">
+        <v>0.1031537761800362</v>
+      </c>
+      <c r="T25">
+        <v>0.1094986861527939</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.4990375</v>
+      </c>
+      <c r="H26">
+        <v>0.998075</v>
+      </c>
+      <c r="I26">
+        <v>0.2964221153484431</v>
+      </c>
+      <c r="J26">
+        <v>0.225523398666936</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.480875</v>
+      </c>
+      <c r="N26">
+        <v>0.96175</v>
+      </c>
+      <c r="O26">
+        <v>0.008972735441887963</v>
+      </c>
+      <c r="P26">
+        <v>0.008345961472334342</v>
+      </c>
+      <c r="Q26">
+        <v>0.2399746578125</v>
+      </c>
+      <c r="R26">
+        <v>0.9598986312500001</v>
+      </c>
+      <c r="S26">
+        <v>0.002659717220146377</v>
+      </c>
+      <c r="T26">
+        <v>0.001882209596384146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.4990375</v>
+      </c>
+      <c r="H27">
+        <v>0.998075</v>
+      </c>
+      <c r="I27">
+        <v>0.2964221153484431</v>
+      </c>
+      <c r="J27">
+        <v>0.225523398666936</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>4.865417666666667</v>
+      </c>
+      <c r="N27">
+        <v>14.596253</v>
+      </c>
+      <c r="O27">
+        <v>0.09078472687764562</v>
+      </c>
+      <c r="P27">
+        <v>0.1266646895538805</v>
+      </c>
+      <c r="Q27">
+        <v>2.428025868829167</v>
+      </c>
+      <c r="R27">
+        <v>14.568155212975</v>
+      </c>
+      <c r="S27">
+        <v>0.02691060078240237</v>
+      </c>
+      <c r="T27">
+        <v>0.02856585127928348</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.4990375</v>
+      </c>
+      <c r="H28">
+        <v>0.998075</v>
+      </c>
+      <c r="I28">
+        <v>0.2964221153484431</v>
+      </c>
+      <c r="J28">
+        <v>0.225523398666936</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.708736</v>
+      </c>
+      <c r="N28">
+        <v>5.126208</v>
+      </c>
+      <c r="O28">
+        <v>0.03188362062496464</v>
+      </c>
+      <c r="P28">
+        <v>0.04448467321775106</v>
+      </c>
+      <c r="Q28">
+        <v>0.8527233416000001</v>
+      </c>
+      <c r="R28">
+        <v>5.116340049600001</v>
+      </c>
+      <c r="S28">
+        <v>0.009451010270619268</v>
+      </c>
+      <c r="T28">
+        <v>0.01003233469265524</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.4990375</v>
+      </c>
+      <c r="H29">
+        <v>0.998075</v>
+      </c>
+      <c r="I29">
+        <v>0.2964221153484431</v>
+      </c>
+      <c r="J29">
+        <v>0.225523398666936</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.8951863333333333</v>
+      </c>
+      <c r="N29">
+        <v>2.685559</v>
+      </c>
+      <c r="O29">
+        <v>0.01670344713323365</v>
+      </c>
+      <c r="P29">
+        <v>0.02330498772620821</v>
+      </c>
+      <c r="Q29">
+        <v>0.4467315498208334</v>
+      </c>
+      <c r="R29">
+        <v>2.680389298925</v>
+      </c>
+      <c r="S29">
+        <v>0.004951271132844006</v>
+      </c>
+      <c r="T29">
+        <v>0.005255820037905704</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.412112151961089</v>
-      </c>
-      <c r="H25">
-        <v>0.412112151961089</v>
-      </c>
-      <c r="I25">
-        <v>0.325508012971553</v>
-      </c>
-      <c r="J25">
-        <v>0.325508012971553</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>44.6766603574561</v>
-      </c>
-      <c r="N25">
-        <v>44.6766603574561</v>
-      </c>
-      <c r="O25">
-        <v>0.8531983361499288</v>
-      </c>
-      <c r="P25">
-        <v>0.8531983361499288</v>
-      </c>
-      <c r="Q25">
-        <v>18.41179464234591</v>
-      </c>
-      <c r="R25">
-        <v>18.41179464234591</v>
-      </c>
-      <c r="S25">
-        <v>0.2777228950707984</v>
-      </c>
-      <c r="T25">
-        <v>0.2777228950707984</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.4990375</v>
+      </c>
+      <c r="H30">
+        <v>0.998075</v>
+      </c>
+      <c r="I30">
+        <v>0.2964221153484431</v>
+      </c>
+      <c r="J30">
+        <v>0.225523398666936</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.5802156666666667</v>
+      </c>
+      <c r="N30">
+        <v>1.740647</v>
+      </c>
+      <c r="O30">
+        <v>0.01082635128929275</v>
+      </c>
+      <c r="P30">
+        <v>0.01510514457908433</v>
+      </c>
+      <c r="Q30">
+        <v>0.2895493757541667</v>
+      </c>
+      <c r="R30">
+        <v>1.737296254525</v>
+      </c>
+      <c r="S30">
+        <v>0.003209169950677502</v>
+      </c>
+      <c r="T30">
+        <v>0.003406563542830543</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.4990375</v>
+      </c>
+      <c r="H31">
+        <v>0.998075</v>
+      </c>
+      <c r="I31">
+        <v>0.2964221153484431</v>
+      </c>
+      <c r="J31">
+        <v>0.225523398666936</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>45.062479</v>
+      </c>
+      <c r="N31">
+        <v>90.12495799999999</v>
+      </c>
+      <c r="O31">
+        <v>0.8408291186329754</v>
+      </c>
+      <c r="P31">
+        <v>0.7820945434507416</v>
+      </c>
+      <c r="Q31">
+        <v>22.4878668639625</v>
+      </c>
+      <c r="R31">
+        <v>89.95146745584999</v>
+      </c>
+      <c r="S31">
+        <v>0.2492403459917536</v>
+      </c>
+      <c r="T31">
+        <v>0.1763806195178769</v>
       </c>
     </row>
   </sheetData>
